--- a/doc/Manual/Batchmode/LandFile.xlsx
+++ b/doc/Manual/Batchmode/LandFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RangeShifter2\doc\Manual\Batchmode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s02tp3\github\rs_batch_dev\doc\Manual\Batchmode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A371A07A-BEC2-4C0D-B6AA-F97E3D073213}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF7DF5F-0E18-44CC-BE8D-867993E89084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8964" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description - imported" sheetId="3" r:id="rId1"/>
@@ -880,12 +880,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -894,6 +888,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -958,9 +958,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -998,9 +998,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1033,26 +1033,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1085,26 +1068,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1280,22 +1246,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
@@ -1309,7 +1275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1323,7 +1289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
@@ -1337,7 +1303,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1351,7 +1317,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1365,21 +1331,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>48</v>
       </c>
@@ -1393,7 +1359,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1423,18 +1389,18 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
@@ -1457,7 +1423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>21</v>
       </c>
@@ -1480,7 +1446,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>22</v>
       </c>
@@ -1503,7 +1469,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>23</v>
       </c>
@@ -1526,7 +1492,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>24</v>
       </c>
@@ -1549,7 +1515,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>25</v>
       </c>
@@ -1588,18 +1554,18 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
@@ -1622,7 +1588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>21</v>
       </c>
@@ -1645,7 +1611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>22</v>
       </c>
@@ -1684,18 +1650,18 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
@@ -1718,7 +1684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>21</v>
       </c>
@@ -1741,7 +1707,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>22</v>
       </c>
@@ -1764,7 +1730,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>23</v>
       </c>
@@ -1787,7 +1753,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>24</v>
       </c>
@@ -1810,7 +1776,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>25</v>
       </c>
@@ -1849,18 +1815,18 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
@@ -1883,7 +1849,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>21</v>
       </c>
@@ -1906,7 +1872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>22</v>
       </c>
@@ -1946,15 +1912,15 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="57.5703125" customWidth="1"/>
+    <col min="4" max="4" width="57.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
@@ -1968,7 +1934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>56</v>
       </c>
@@ -1982,7 +1948,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>57</v>
       </c>
@@ -1996,7 +1962,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>58</v>
       </c>
@@ -2010,7 +1976,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>59</v>
       </c>
@@ -2024,7 +1990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>69</v>
       </c>
@@ -2055,15 +2021,15 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
@@ -2077,7 +2043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -2091,7 +2057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -2103,7 +2069,7 @@
       </c>
       <c r="D3" s="14"/>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -2115,7 +2081,7 @@
       </c>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -2125,11 +2091,11 @@
       <c r="C5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -2139,9 +2105,9 @@
       <c r="C6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="26"/>
-    </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -2155,7 +2121,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -2169,7 +2135,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
@@ -2181,7 +2147,7 @@
       </c>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -2208,14 +2174,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
@@ -2244,7 +2210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2273,7 +2239,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2302,7 +2268,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -2331,7 +2297,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>4</v>
       </c>

--- a/doc/Manual/Batchmode/LandFile.xlsx
+++ b/doc/Manual/Batchmode/LandFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s02tp3\github\rs_batch_dev\doc\Manual\Batchmode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF7DF5F-0E18-44CC-BE8D-867993E89084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BDD6A0-11A8-435D-91BF-E87C9D2405AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8964" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description - imported" sheetId="3" r:id="rId1"/>
@@ -106,12 +106,6 @@
     <t>May not exceed MaxHabitats</t>
   </si>
   <si>
-    <t>Dimension along the x axis</t>
-  </si>
-  <si>
-    <t>Dimension along the y axis</t>
-  </si>
-  <si>
     <t>Proportion of suitable cells</t>
   </si>
   <si>
@@ -251,6 +245,12 @@
   </si>
   <si>
     <t>Required if CostMapFile in LandFile is not NULL, otherwise NULL</t>
+  </si>
+  <si>
+    <t>Dimension (number of cells) along the x axis</t>
+  </si>
+  <si>
+    <t>Dimension (number of cells) along the y axis</t>
   </si>
 </sst>
 </file>
@@ -1263,13 +1263,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>13</v>
@@ -1294,10 +1294,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>22</v>
@@ -1308,13 +1308,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1322,41 +1322,41 @@
         <v>16</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1364,10 +1364,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>19</v>
@@ -1414,10 +1414,10 @@
         <v>16</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>18</v>
@@ -1434,16 +1434,16 @@
         <v>20</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1457,16 +1457,16 @@
         <v>20</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1480,16 +1480,16 @@
         <v>20</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1503,16 +1503,16 @@
         <v>21</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1526,16 +1526,16 @@
         <v>21</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1579,10 +1579,10 @@
         <v>16</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>18</v>
@@ -1599,10 +1599,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>17</v>
@@ -1622,13 +1622,13 @@
         <v>21</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>17</v>
@@ -1675,10 +1675,10 @@
         <v>16</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>18</v>
@@ -1698,13 +1698,13 @@
         <v>17</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1721,13 +1721,13 @@
         <v>17</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1744,13 +1744,13 @@
         <v>17</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1767,13 +1767,13 @@
         <v>17</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1790,13 +1790,13 @@
         <v>17</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1840,10 +1840,10 @@
         <v>16</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>18</v>
@@ -1863,7 +1863,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>17</v>
@@ -1889,7 +1889,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>17</v>
@@ -1922,13 +1922,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>10</v>
@@ -1936,72 +1936,72 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>69</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2014,11 +2014,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2031,13 +2031,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>10</v>
@@ -2048,7 +2048,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>13</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>1</v>
@@ -2074,7 +2074,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>3</v>
@@ -2086,13 +2086,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -2100,10 +2100,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D6" s="29"/>
     </row>
@@ -2112,13 +2112,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -2126,24 +2126,24 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="14"/>
     </row>
@@ -2152,13 +2152,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2174,9 +2174,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2204,7 +2204,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>8</v>

--- a/doc/Manual/Batchmode/LandFile.xlsx
+++ b/doc/Manual/Batchmode/LandFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s02tp3\github\rs_batch_dev\doc\Manual\Batchmode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BDD6A0-11A8-435D-91BF-E87C9D2405AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44E1174-3EA1-4AC2-B596-87AF0624786F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description - imported" sheetId="3" r:id="rId1"/>
@@ -448,7 +448,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,18 +626,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -846,7 +834,7 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -868,32 +856,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -1246,22 +1226,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
@@ -1275,7 +1255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1289,7 +1269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
@@ -1303,7 +1283,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1317,7 +1297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1331,35 +1311,35 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1389,18 +1369,18 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
@@ -1423,7 +1403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>21</v>
       </c>
@@ -1436,17 +1416,17 @@
       <c r="D2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>22</v>
       </c>
@@ -1459,17 +1439,17 @@
       <c r="D3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>23</v>
       </c>
@@ -1482,17 +1462,17 @@
       <c r="D4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>24</v>
       </c>
@@ -1505,17 +1485,17 @@
       <c r="D5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="18" t="s">
         <v>53</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>25</v>
       </c>
@@ -1528,10 +1508,10 @@
       <c r="D6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="18" t="s">
         <v>53</v>
       </c>
       <c r="G6" s="16" t="s">
@@ -1554,18 +1534,18 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
@@ -1588,7 +1568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>21</v>
       </c>
@@ -1601,7 +1581,7 @@
       <c r="D2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="18" t="s">
         <v>65</v>
       </c>
       <c r="F2" s="16" t="s">
@@ -1611,7 +1591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>22</v>
       </c>
@@ -1627,7 +1607,7 @@
       <c r="E3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="18" t="s">
         <v>53</v>
       </c>
       <c r="G3" s="16" t="s">
@@ -1650,18 +1630,18 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
@@ -1684,7 +1664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>21</v>
       </c>
@@ -1697,17 +1677,17 @@
       <c r="D2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="18" t="s">
         <v>65</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>22</v>
       </c>
@@ -1720,17 +1700,17 @@
       <c r="D3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="18" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>23</v>
       </c>
@@ -1743,17 +1723,17 @@
       <c r="D4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="18" t="s">
         <v>65</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>24</v>
       </c>
@@ -1766,17 +1746,17 @@
       <c r="D5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="18" t="s">
         <v>52</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>25</v>
       </c>
@@ -1789,10 +1769,10 @@
       <c r="D6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="18" t="s">
         <v>52</v>
       </c>
       <c r="G6" s="16" t="s">
@@ -1815,18 +1795,18 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
@@ -1849,7 +1829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>21</v>
       </c>
@@ -1862,7 +1842,7 @@
       <c r="D2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="18" t="s">
         <v>65</v>
       </c>
       <c r="F2" s="16" t="s">
@@ -1872,7 +1852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>22</v>
       </c>
@@ -1888,7 +1868,7 @@
       <c r="E3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="18" t="s">
         <v>52</v>
       </c>
       <c r="G3" s="16" t="s">
@@ -1909,18 +1889,18 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="57.5546875" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
@@ -1934,7 +1914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
@@ -1948,7 +1928,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>55</v>
       </c>
@@ -1962,7 +1942,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -1976,7 +1956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -1990,17 +1970,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2014,22 +1994,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
@@ -2043,7 +2023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -2057,7 +2037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -2069,7 +2049,7 @@
       </c>
       <c r="D3" s="14"/>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -2081,7 +2061,7 @@
       </c>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -2091,11 +2071,11 @@
       <c r="C5" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -2105,37 +2085,37 @@
       <c r="C6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="29"/>
-    </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
@@ -2147,7 +2127,7 @@
       </c>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -2176,54 +2156,54 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="20">
         <v>0</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="20">
         <v>0</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="20">
         <v>100</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="20">
         <v>100</v>
       </c>
       <c r="F2" s="20">
@@ -2232,56 +2212,56 @@
       <c r="G2" s="20">
         <v>-9</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="20">
         <v>1</v>
       </c>
       <c r="I2" s="20">
         <v>-9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="20">
         <v>0</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="20">
         <v>1</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="20">
         <v>100</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="20">
         <v>199</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="20">
         <v>17</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="20">
         <v>28</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="20">
         <v>0.7</v>
       </c>
       <c r="I3" s="20">
         <v>-9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="20">
         <v>1</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="20">
         <v>0</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="20">
         <v>33</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="20">
         <v>65</v>
       </c>
       <c r="F4" s="20">
@@ -2290,39 +2270,39 @@
       <c r="G4" s="20">
         <v>-9</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="20">
         <v>0.85</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="20">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="20">
         <v>1</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="20">
         <v>17</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="20">
         <v>129</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="20">
         <v>4</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="20">
         <v>99</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="20">
         <v>1</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="20">
         <v>0.99199999999999999</v>
       </c>
     </row>
